--- a/UI/bin/Debug/Excel/SubmissionTicket.xlsx
+++ b/UI/bin/Debug/Excel/SubmissionTicket.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>入库送检单</t>
   </si>
   <si>
-    <t>@var ticket=SubmissionTicket;var item=SubmissionTicketItem;var receipt=ReceiptTicket</t>
+    <t>@var ticket=SubmissionTicket;var item=SubmissionTicketItem;var receipt=ReceiptTicket;""</t>
   </si>
   <si>
     <t>填报日期：@ticket.CreateTime==null?'':ticket.CreateTime.toLocaleDateString()</t>
@@ -98,7 +98,7 @@
     <t>备注</t>
   </si>
   <si>
-    <t>#REPEAT AREA 1 4 VAR i IN range(items.length)</t>
+    <t>#REPEAT AREA 1 4 VAR i IN range(item.length)</t>
   </si>
   <si>
     <t>PC</t>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>第1/1页</t>
+  </si>
+  <si>
+    <t>Error(6,0): repeat range " range(items.length)" must be iterable</t>
   </si>
 </sst>
 </file>
@@ -140,9 +143,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -190,8 +193,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -199,15 +224,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -222,75 +255,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -305,16 +301,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -322,6 +310,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -342,6 +345,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -354,13 +411,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,157 +507,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,6 +585,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -593,26 +611,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,15 +630,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -656,17 +645,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,6 +662,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -687,10 +690,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -699,133 +702,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1253,10 +1256,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -1501,6 +1504,11 @@
         <v>38</v>
       </c>
       <c r="N10" s="11"/>
+    </row>
+    <row r="25" spans="11:11">
+      <c r="K25" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="27">

--- a/UI/bin/Debug/Excel/SubmissionTicket.xlsx
+++ b/UI/bin/Debug/Excel/SubmissionTicket.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="9975"/>
+    <workbookView windowWidth="21495" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>入库送检单</t>
   </si>
@@ -132,9 +132,6 @@
   </si>
   <si>
     <t>第1/1页</t>
-  </si>
-  <si>
-    <t>Error(6,0): repeat range " range(items.length)" must be iterable</t>
   </si>
 </sst>
 </file>
@@ -142,10 +139,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -194,20 +191,105 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -215,16 +297,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -233,14 +307,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -255,76 +321,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -345,187 +342,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,17 +582,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,17 +621,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,36 +675,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,145 +687,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1256,10 +1253,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -1504,11 +1501,6 @@
         <v>38</v>
       </c>
       <c r="N10" s="11"/>
-    </row>
-    <row r="25" spans="11:11">
-      <c r="K25" t="s">
-        <v>39</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="27">

--- a/UI/bin/Debug/Excel/SubmissionTicket.xlsx
+++ b/UI/bin/Debug/Excel/SubmissionTicket.xlsx
@@ -14,15 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>入库送检单</t>
   </si>
   <si>
-    <t>@var ticket=SubmissionTicket;var item=SubmissionTicketItem;var receipt=ReceiptTicket;""</t>
-  </si>
-  <si>
-    <t>填报日期：@ticket.CreateTime==null?'':ticket.CreateTime.toLocaleDateString()</t>
+    <t>@var ticket=SubmissionTicket;var item=SubmissionTicketItem;var receipt=ReceiptTicket;var PC='PC';""</t>
+  </si>
+  <si>
+    <t>填报日期：@Date().toLocaleDateString();</t>
   </si>
   <si>
     <t>内向交货单：@receipt.InwardDeliverTicketNo</t>
@@ -98,10 +98,7 @@
     <t>备注</t>
   </si>
   <si>
-    <t>#REPEAT AREA 1 4 VAR i IN range(item.length)</t>
-  </si>
-  <si>
-    <t>PC</t>
+    <t>#REPEAT AREA 1 14 VAR i IN range(item.length)</t>
   </si>
   <si>
     <t>@i+1</t>
@@ -114,6 +111,25 @@
   </si>
   <si>
     <t>@item[i].ComponentName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@item[i].ArriveAmount
+</t>
+  </si>
+  <si>
+    <t>@PC</t>
+  </si>
+  <si>
+    <t>@item[i].SubmissionAmount</t>
+  </si>
+  <si>
+    <t>@item[i].ReturnAmount</t>
+  </si>
+  <si>
+    <t>@item[i].State</t>
+  </si>
+  <si>
+    <t>@item[i].Comment</t>
   </si>
   <si>
     <t>制单员:</t>
@@ -190,8 +206,108 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -207,38 +323,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -246,75 +330,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -342,85 +358,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,91 +532,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,11 +598,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,32 +628,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -643,15 +639,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,8 +661,37 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,145 +703,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1256,7 +1272,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -1424,9 +1440,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -1436,27 +1450,39 @@
     </row>
     <row r="8" customHeight="1" spans="1:14">
       <c r="A8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="13"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="11"/>
+      <c r="H8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
+      <c r="M8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="11"/>
@@ -1476,34 +1502,34 @@
     </row>
     <row r="10" customHeight="1" spans="1:14">
       <c r="A10" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="L10" s="14"/>
       <c r="M10" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="N10" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="26">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
@@ -1519,7 +1545,6 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="J8:N8"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="I10:J10"/>

--- a/UI/bin/Debug/Excel/SubmissionTicket.xlsx
+++ b/UI/bin/Debug/Excel/SubmissionTicket.xlsx
@@ -22,7 +22,7 @@
     <t>@var ticket=SubmissionTicket;var item=SubmissionTicketItem;var receipt=ReceiptTicket;var PC='PC';""</t>
   </si>
   <si>
-    <t>填报日期：@Date().toLocaleDateString();</t>
+    <t>填报日期：@ticket.PaintTime.toLocaleDateString();</t>
   </si>
   <si>
     <t>内向交货单：@receipt.InwardDeliverTicketNo</t>
@@ -155,9 +155,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -206,8 +206,37 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -216,59 +245,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -282,32 +289,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -323,14 +307,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -338,6 +331,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -358,13 +358,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,169 +460,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,21 +599,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -624,21 +609,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,16 +631,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -685,13 +657,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,10 +703,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -715,133 +715,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/UI/bin/Debug/Excel/SubmissionTicket.xlsx
+++ b/UI/bin/Debug/Excel/SubmissionTicket.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>入库送检单</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>@item[i].ReturnAmount</t>
+  </si>
+  <si>
+    <t>@item[i].ReceiptTicketItemPurchaseOrder</t>
+  </si>
+  <si>
+    <t>@item[i].ReceiptTicketItemBatchNumber</t>
   </si>
   <si>
     <t>@item[i].State</t>
@@ -845,57 +851,60 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -962,53 +971,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>90170</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1026" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1385570" cy="394970"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1269,10 +1231,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -1280,7 +1242,7 @@
     <col min="3" max="3" width="9.3716814159292"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.6" customHeight="1" spans="1:14">
+    <row r="1" ht="17.6" customHeight="1" spans="1:15">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1294,13 +1256,14 @@
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="15"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1310,13 +1273,14 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="15"/>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:14">
+    <row r="3" ht="15" customHeight="1" spans="1:15">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1337,8 +1301,9 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
+      <c r="O3" s="15"/>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:14">
+    <row r="4" ht="15" customHeight="1" spans="1:15">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -1361,8 +1326,9 @@
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
+      <c r="O4" s="15"/>
     </row>
-    <row r="5" ht="24" customHeight="1" spans="1:14">
+    <row r="5" ht="24" customHeight="1" spans="1:15">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -1389,8 +1355,9 @@
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
+      <c r="O5" s="15"/>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:14">
+    <row r="6" ht="15" customHeight="1" spans="1:15">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
@@ -1411,7 +1378,7 @@
       <c r="H6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="17" t="s">
         <v>21</v>
       </c>
       <c r="J6" s="10" t="s">
@@ -1423,14 +1390,15 @@
       <c r="L6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="17" t="s">
         <v>25</v>
       </c>
       <c r="N6" s="10" t="s">
         <v>26</v>
       </c>
+      <c r="O6" s="15"/>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="1:14">
+    <row r="7" ht="15" customHeight="1" spans="1:15">
       <c r="A7" s="8" t="s">
         <v>27</v>
       </c>
@@ -1447,8 +1415,9 @@
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
+      <c r="O7" s="15"/>
     </row>
-    <row r="8" customHeight="1" spans="1:14">
+    <row r="8" customHeight="1" spans="1:15">
       <c r="A8" s="11" t="s">
         <v>28</v>
       </c>
@@ -1475,16 +1444,21 @@
       <c r="J8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
+      <c r="K8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="M8" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>37</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="O8" s="15"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
@@ -1499,34 +1473,104 @@
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
+      <c r="O9" s="15"/>
     </row>
-    <row r="10" customHeight="1" spans="1:14">
+    <row r="10" customHeight="1" spans="1:15">
       <c r="A10" s="11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L10" s="14"/>
       <c r="M10" s="11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N10" s="11"/>
+      <c r="O10" s="15"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -1559,6 +1603,5 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/UI/bin/Debug/Excel/SubmissionTicket.xlsx
+++ b/UI/bin/Debug/Excel/SubmissionTicket.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>入库送检单</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>SAP凭证：</t>
+  </si>
+  <si>
+    <t>送检时间：@SubmissionTicket.SubmissionDate.toLocaleDateString()</t>
   </si>
   <si>
     <t>收货类别</t>
@@ -141,13 +144,13 @@
     <t>制单员:</t>
   </si>
   <si>
-    <t>送检员:</t>
-  </si>
-  <si>
-    <t>质检接收：</t>
-  </si>
-  <si>
-    <t>质检员：</t>
+    <t>送检员:@SubmissionTicket.DeliverSubmissionPersonName</t>
+  </si>
+  <si>
+    <t>质检接收：@SubmissionTicket.ReceivePersonName</t>
+  </si>
+  <si>
+    <t>质检员：@SubmissionTicket.DeliverSubmissionPersonName</t>
   </si>
   <si>
     <t>质检返回：</t>
@@ -162,8 +165,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -213,44 +216,97 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -264,8 +320,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -279,71 +336,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -364,13 +367,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,169 +523,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,6 +607,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -619,17 +631,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,37 +649,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,9 +681,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,10 +712,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -721,133 +724,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -868,13 +871,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -894,10 +897,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1234,7 +1237,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -1251,9 +1254,6 @@
         <v>0</v>
       </c>
       <c r="F1" s="3"/>
-      <c r="G1" s="4" t="s">
-        <v>1</v>
-      </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="16"/>
@@ -1261,7 +1261,9 @@
       <c r="L1" s="16"/>
       <c r="M1" s="16"/>
       <c r="N1" s="16"/>
-      <c r="O1" s="15"/>
+      <c r="O1" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1"/>
@@ -1270,7 +1272,6 @@
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="16"/>
@@ -1278,7 +1279,7 @@
       <c r="L2" s="16"/>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
-      <c r="O2" s="15"/>
+      <c r="O2" s="4"/>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:15">
       <c r="A3" s="5" t="s">
@@ -1296,29 +1297,31 @@
         <v>4</v>
       </c>
       <c r="I3" s="7"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
-      <c r="O3" s="15"/>
+      <c r="O3" s="14"/>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:15">
       <c r="A4" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -1326,28 +1329,28 @@
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
-      <c r="O4" s="15"/>
+      <c r="O4" s="14"/>
     </row>
     <row r="5" ht="24" customHeight="1" spans="1:15">
       <c r="A5" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -1355,52 +1358,52 @@
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
-      <c r="O5" s="15"/>
+      <c r="O5" s="14"/>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:15">
       <c r="A6" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="O6" s="15"/>
+        <v>27</v>
+      </c>
+      <c r="O6" s="14"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:15">
       <c r="A7" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1415,48 +1418,48 @@
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
-      <c r="O7" s="15"/>
+      <c r="O7" s="14"/>
     </row>
     <row r="8" customHeight="1" spans="1:15">
       <c r="A8" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="O8" s="15"/>
+        <v>40</v>
+      </c>
+      <c r="O8" s="14"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="11"/>
@@ -1473,112 +1476,95 @@
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
-      <c r="O9" s="15"/>
+      <c r="O9" s="14"/>
     </row>
-    <row r="10" customHeight="1" spans="1:15">
-      <c r="A10" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="14"/>
-      <c r="M10" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="N10" s="11"/>
-      <c r="O10" s="15"/>
+    <row r="10" customHeight="1" spans="15:15">
+      <c r="O10" s="14"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
+      <c r="A14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
+      <c r="F14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
+      <c r="M14" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N14" s="11"/>
+      <c r="O14" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
+  <mergeCells count="23">
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="J3:K3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="H4:N4"/>
@@ -1589,14 +1575,14 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="M14:N14"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="O1:O2"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="E1:F2"/>
     <mergeCell ref="J1:N2"/>

--- a/UI/bin/Debug/Excel/SubmissionTicket.xlsx
+++ b/UI/bin/Debug/Excel/SubmissionTicket.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10395"/>
+    <workbookView windowWidth="20415" windowHeight="10575"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+  <si>
+    <t>#SET TABLE COLUMNS 14</t>
+  </si>
   <si>
     <t>入库送检单</t>
   </si>
   <si>
-    <t>@var ticket=SubmissionTicket;var item=SubmissionTicketItem;var receipt=ReceiptTicket;var PC='PC';""</t>
+    <t>@var ticket=SubmissionTicket;var item=SubmissionTicketItem;var receipt=ReceiptTicket;""</t>
   </si>
   <si>
     <t>填报日期：@ticket.PaintTime.toLocaleDateString();</t>
@@ -28,9 +31,6 @@
     <t>内向交货单：@receipt.InwardDeliverTicketNo</t>
   </si>
   <si>
-    <t>SAP凭证：</t>
-  </si>
-  <si>
     <t>送检时间：@SubmissionTicket.SubmissionDate.toLocaleDateString()</t>
   </si>
   <si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>工厂</t>
-  </si>
-  <si>
-    <t>北京汽车动力总成有限公司发动机工厂</t>
   </si>
   <si>
     <t>供应商</t>
@@ -120,7 +117,7 @@
 </t>
   </si>
   <si>
-    <t>@PC</t>
+    <t>@item[i].Unit</t>
   </si>
   <si>
     <t>@item[i].SubmissionAmount</t>
@@ -141,7 +138,7 @@
     <t>@item[i].Comment</t>
   </si>
   <si>
-    <t>制单员:</t>
+    <t>制单员:@SubmissionTicket.PersonName</t>
   </si>
   <si>
     <t>送检员:@SubmissionTicket.DeliverSubmissionPersonName</t>
@@ -150,13 +147,7 @@
     <t>质检接收：@SubmissionTicket.ReceivePersonName</t>
   </si>
   <si>
-    <t>质检员：@SubmissionTicket.DeliverSubmissionPersonName</t>
-  </si>
-  <si>
-    <t>质检返回：</t>
-  </si>
-  <si>
-    <t>第1/1页</t>
+    <t>质检员：@SubmissionTicket.SubmissionPersonName</t>
   </si>
 </sst>
 </file>
@@ -165,11 +156,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,23 +169,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Dialog"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -203,25 +190,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Dialog"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -229,6 +197,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -236,6 +227,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -243,40 +243,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -291,7 +260,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -299,30 +268,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -344,9 +290,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -367,6 +342,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -377,182 +526,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -561,48 +536,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,8 +569,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,20 +601,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,43 +631,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,10 +656,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -724,189 +668,153 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1234,10 +1142,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -1246,325 +1154,236 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.6" customHeight="1" spans="1:15">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="3"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="4" t="s">
+      <c r="D1" s="1"/>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="4"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:15">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="5" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="7" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="5" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="14"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:15">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="14"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="4"/>
     </row>
     <row r="5" ht="24" customHeight="1" spans="1:15">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="H5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="14"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="4"/>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:15">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9" t="s">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9" t="s">
+      <c r="I6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="J6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="K6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="L6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="M6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="N6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="O6" s="14"/>
+      <c r="O6" s="4"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:15">
-      <c r="A7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="14"/>
+      <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="4"/>
     </row>
     <row r="8" customHeight="1" spans="1:15">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="C8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="13" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13" t="s">
+      <c r="I8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="J8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="K8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="L8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="M8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="N8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="O8" s="4"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:9">
+      <c r="A10" t="s">
         <v>40</v>
       </c>
-      <c r="O8" s="14"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="14"/>
-    </row>
-    <row r="10" customHeight="1" spans="15:15">
-      <c r="O10" s="14"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="11" t="s">
+      <c r="D10" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11" t="s">
+      <c r="F10" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="11" t="s">
+      <c r="I10" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="L14" s="15"/>
-      <c r="M14" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="N14" s="11"/>
-      <c r="O14" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
+  <mergeCells count="11">
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="H4:N4"/>
@@ -1573,19 +1392,9 @@
     <mergeCell ref="H5:N5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="J1:N2"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F1:G2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <headerFooter/>

--- a/UI/bin/Debug/Excel/SubmissionTicket.xlsx
+++ b/UI/bin/Debug/Excel/SubmissionTicket.xlsx
@@ -117,7 +117,7 @@
 </t>
   </si>
   <si>
-    <t>@item[i].Unit</t>
+    <t>个</t>
   </si>
   <si>
     <t>@item[i].SubmissionAmount</t>
@@ -155,10 +155,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -199,7 +199,67 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -221,7 +281,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -237,91 +313,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -342,13 +342,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,169 +498,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,17 +551,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,13 +569,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,21 +614,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -642,9 +625,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,145 +656,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1145,7 +1145,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D8" sqref="D8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>

--- a/UI/bin/Debug/Excel/SubmissionTicket.xlsx
+++ b/UI/bin/Debug/Excel/SubmissionTicket.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>#SET TABLE COLUMNS 14</t>
   </si>
@@ -49,7 +49,7 @@
     <t>@SubmissionTicket.SupplierName</t>
   </si>
   <si>
-    <t>有无自检报告</t>
+    <t>自检报告</t>
   </si>
   <si>
     <t xml:space="preserve">@SubmissionTicket.HasSelfInspectionReport
@@ -62,24 +62,15 @@
     <t>@SubmissionTicket.No</t>
   </si>
   <si>
-    <t>编号</t>
-  </si>
-  <si>
-    <t>行项目</t>
-  </si>
-  <si>
-    <t>物料编码</t>
-  </si>
-  <si>
-    <t>物料名称</t>
+    <t>零件代号</t>
+  </si>
+  <si>
+    <t>零件名称</t>
   </si>
   <si>
     <t>到货数量</t>
   </si>
   <si>
-    <t>单位</t>
-  </si>
-  <si>
     <t>送检数量</t>
   </si>
   <si>
@@ -89,7 +80,7 @@
     <t>采购订单</t>
   </si>
   <si>
-    <t>批次号</t>
+    <t>存货日期</t>
   </si>
   <si>
     <t>检测结果</t>
@@ -101,35 +92,25 @@
     <t>#REPEAT AREA 1 14 VAR i IN range(item.length)</t>
   </si>
   <si>
-    <t>@i+1</t>
-  </si>
-  <si>
-    <t>@item[i].LineItem</t>
-  </si>
-  <si>
     <t>@item[i].SupplyNo</t>
   </si>
   <si>
     <t>@item[i].ComponentName</t>
   </si>
   <si>
-    <t xml:space="preserve">@item[i].ArriveAmount
-</t>
-  </si>
-  <si>
-    <t>个</t>
-  </si>
-  <si>
-    <t>@item[i].SubmissionAmount</t>
-  </si>
-  <si>
-    <t>@item[i].ReturnAmount</t>
+    <t>@item[i].ArriveAmount+'个'</t>
+  </si>
+  <si>
+    <t>@item[i].SubmissionAmount+'个'</t>
+  </si>
+  <si>
+    <t>@item[i].ReturnAmount+'个'</t>
   </si>
   <si>
     <t>@item[i].ReceiptTicketItemPurchaseOrder</t>
   </si>
   <si>
-    <t>@item[i].ReceiptTicketItemBatchNumber</t>
+    <t>@item[i].ReceiptTicketItemInventoryDate==null?"":item[i].ReceiptTicketItemInventoryDate.toLocaleDateString()</t>
   </si>
   <si>
     <t>@item[i].State</t>
@@ -157,10 +138,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,21 +158,92 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -221,8 +273,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -237,91 +329,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -342,12 +350,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -360,37 +512,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,121 +530,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,11 +559,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,7 +602,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,21 +618,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,15 +639,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -634,17 +648,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,10 +664,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -668,19 +676,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -689,116 +697,116 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -808,13 +816,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1145,12 +1165,16 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:E8"/>
+      <selection activeCell="G6" sqref="G6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="9.3716814159292"/>
+    <col min="1" max="1" width="11.0265486725664" customWidth="1"/>
+    <col min="3" max="3" width="12.0176991150442" customWidth="1"/>
+    <col min="4" max="4" width="9.36283185840708" customWidth="1"/>
+    <col min="5" max="5" width="9.43362831858407" customWidth="1"/>
+    <col min="6" max="6" width="9.56637168141593" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.6" customHeight="1" spans="1:15">
@@ -1160,11 +1184,12 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="1"/>
+      <c r="H1" s="2"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1" t="s">
         <v>2</v>
@@ -1180,10 +1205,10 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="1"/>
+      <c r="H2" s="2"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1193,208 +1218,232 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:15">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="8"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:15">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="9"/>
     </row>
     <row r="5" ht="24" customHeight="1" spans="1:15">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="9"/>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:15">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="4"/>
+      <c r="M6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="9"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:15">
-      <c r="A7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="9"/>
     </row>
     <row r="8" customHeight="1" spans="1:15">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
+      <c r="J8" s="4"/>
+      <c r="K8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
+      <c r="L8" s="4"/>
+      <c r="M8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="N8" s="4"/>
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" ht="15.75" spans="1:14">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:14">
+      <c r="A10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O8" s="4"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:9">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" t="s">
-        <v>43</v>
-      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="21">
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="H4:N4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="H5:N5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F1:G2"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="E1:H2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <headerFooter/>

--- a/UI/bin/Debug/Excel/SubmissionTicket.xlsx
+++ b/UI/bin/Debug/Excel/SubmissionTicket.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>入库送检单</t>
   </si>
@@ -127,12 +127,6 @@
   </si>
   <si>
     <t>@item[i].ReturnAmount</t>
-  </si>
-  <si>
-    <t>@item[i].ReceiptTicketItemPurchaseOrder</t>
-  </si>
-  <si>
-    <t>@item[i].ReceiptTicketItemBatchNumber</t>
   </si>
   <si>
     <t>@item[i].State</t>
@@ -164,8 +158,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -216,67 +210,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -291,38 +285,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -344,9 +307,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -367,187 +361,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,11 +601,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,6 +650,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -664,17 +679,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,21 +698,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -712,145 +706,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1237,7 +1231,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -1447,17 +1441,13 @@
       <c r="J8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="N8" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>40</v>
       </c>
       <c r="O8" s="14"/>
     </row>
@@ -1534,29 +1524,29 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L14" s="15"/>
       <c r="M14" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N14" s="11"/>
       <c r="O14" s="14"/>

--- a/UI/bin/Debug/Excel/SubmissionTicket.xlsx
+++ b/UI/bin/Debug/Excel/SubmissionTicket.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>入库送检单</t>
   </si>
@@ -22,13 +22,16 @@
     <t>@var ticket=SubmissionTicket;var item=SubmissionTicketItem;var receipt=ReceiptTicket;var PC='PC';""</t>
   </si>
   <si>
+    <t>#SET TABLE COLUMNS 14</t>
+  </si>
+  <si>
     <t>填报日期：@ticket.PaintTime.toLocaleDateString();</t>
   </si>
   <si>
     <t>内向交货单：@receipt.InwardDeliverTicketNo</t>
   </si>
   <si>
-    <t>SAP凭证：</t>
+    <t>SAP凭证：@SubmissionTicket.SAPNo</t>
   </si>
   <si>
     <t>送检时间：@SubmissionTicket.SubmissionDate.toLocaleDateString()</t>
@@ -129,28 +132,16 @@
     <t>@item[i].ReturnAmount</t>
   </si>
   <si>
+    <t>@item[i].PurchaseOrder</t>
+  </si>
+  <si>
+    <t>@item[i].BatchNumber</t>
+  </si>
+  <si>
     <t>@item[i].State</t>
   </si>
   <si>
     <t>@item[i].Comment</t>
-  </si>
-  <si>
-    <t>制单员:</t>
-  </si>
-  <si>
-    <t>送检员:@SubmissionTicket.DeliverSubmissionPersonName</t>
-  </si>
-  <si>
-    <t>质检接收：@SubmissionTicket.ReceivePersonName</t>
-  </si>
-  <si>
-    <t>质检员：@SubmissionTicket.DeliverSubmissionPersonName</t>
-  </si>
-  <si>
-    <t>质检返回：</t>
-  </si>
-  <si>
-    <t>第1/1页</t>
   </si>
 </sst>
 </file>
@@ -158,9 +149,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -179,7 +170,7 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -191,26 +182,149 @@
       <charset val="0"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Dialog"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -223,128 +337,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -361,19 +353,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,168 +533,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -601,17 +593,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,10 +661,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -664,21 +702,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -688,13 +711,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,10 +733,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -718,137 +745,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -864,34 +891,52 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -900,7 +945,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1228,10 +1273,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -1239,8 +1284,7 @@
     <col min="3" max="3" width="9.3716814159292"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.6" customHeight="1" spans="1:15">
-      <c r="A1" s="1"/>
+    <row r="1" ht="17.6" customHeight="1" spans="2:15">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -1250,17 +1294,19 @@
       <c r="F1" s="3"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
       <c r="O1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -1268,54 +1314,56 @@
       <c r="F2" s="3"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:15">
+    <row r="3" ht="15" customHeight="1" spans="1:17">
       <c r="A3" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
-      <c r="O3" s="14"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:15">
+    <row r="4" ht="15" customHeight="1" spans="1:17">
       <c r="A4" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -1323,28 +1371,30 @@
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
-      <c r="O4" s="14"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
     </row>
-    <row r="5" ht="24" customHeight="1" spans="1:15">
+    <row r="5" ht="24" customHeight="1" spans="1:17">
       <c r="A5" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -1352,207 +1402,227 @@
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
-      <c r="O5" s="14"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:15">
+    <row r="6" ht="15" customHeight="1" spans="1:17">
       <c r="A6" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="17" t="s">
         <v>22</v>
       </c>
+      <c r="I6" s="23" t="s">
+        <v>23</v>
+      </c>
       <c r="J6" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="17" t="s">
         <v>26</v>
       </c>
+      <c r="M6" s="23" t="s">
+        <v>27</v>
+      </c>
       <c r="N6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="O6" s="14"/>
+        <v>28</v>
+      </c>
+      <c r="O6" s="18"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="1:15">
-      <c r="A7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="14"/>
+    <row r="7" ht="15" customHeight="1" spans="1:17">
+      <c r="A7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
     </row>
-    <row r="8" customHeight="1" spans="1:15">
-      <c r="A8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="11" t="s">
+    <row r="8" customHeight="1" spans="1:17">
+      <c r="A8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13" t="s">
+      <c r="E8" s="13"/>
+      <c r="F8" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="G8" s="15"/>
+      <c r="H8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="I8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11" t="s">
+      <c r="J8" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="K8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="O8" s="14"/>
+      <c r="L8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="18"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
     </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="14"/>
+    <row r="9" ht="15.75" spans="1:17">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
     </row>
-    <row r="10" customHeight="1" spans="15:15">
-      <c r="O10" s="14"/>
+    <row r="10" customHeight="1" spans="1:17">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
     </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
+    <row r="11" ht="15.75" spans="1:17">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="L14" s="15"/>
-      <c r="M14" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="N14" s="11"/>
-      <c r="O14" s="14"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="22">
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="A4:B4"/>
@@ -1573,7 +1643,6 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="O1:O2"/>
-    <mergeCell ref="A1:C2"/>
     <mergeCell ref="E1:F2"/>
     <mergeCell ref="J1:N2"/>
   </mergeCells>
